--- a/src/compiler/data/macq-slug.xlsx
+++ b/src/compiler/data/macq-slug.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tchakra2/survey-visualizer/src/compiler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96DF964-633F-5A4A-8A00-020ECF2BFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E2497C-2009-6D48-91EA-FDB6A6BE1A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="392">
   <si>
     <t>Slug</t>
   </si>
@@ -1235,6 +1235,9 @@
   </si>
   <si>
     <t>We consider the problem of learning propositional STRIPS world models from action traces alone, using a deep learning architecture (transformers) and gradient descent. The task is cast as a supervised next token prediction problem where the tokens are the actions, and an action a may follow an action sequence if the hidden effects of the previous actions do not make an action precondition of a false. We show that a suitable transformer architecture can faithfully represent propositional STRIPS world models, and that the models can be learned from sets of random valid (positive) and invalid (negative) action sequences alone. A number of experiments are reported.</t>
+  </si>
+  <si>
+    <t>Partial Effects</t>
   </si>
 </sst>
 </file>
@@ -1402,15 +1405,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1633,43 +1636,43 @@
   <dimension ref="A1:AN104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K66" sqref="K66"/>
+      <selection pane="bottomRight" activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:40" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="20" t="s">
@@ -1731,7 +1734,7 @@
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="W2" s="19"/>
@@ -1773,13 +1776,13 @@
       </c>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="U3" s="19"/>
@@ -1807,7 +1810,7 @@
         <v>21</v>
       </c>
       <c r="AK3" s="19"/>
-      <c r="AL3" s="18" t="s">
+      <c r="AL3" s="21" t="s">
         <v>22</v>
       </c>
       <c r="AM3" s="19"/>
@@ -1894,7 +1897,7 @@
         <v>39</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>31</v>
@@ -10323,11 +10326,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="K3:L3"/>
@@ -10341,11 +10344,11 @@
     <mergeCell ref="M2:U2"/>
     <mergeCell ref="V2:AN2"/>
     <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10424,34 +10427,34 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="20" t="s">
@@ -10513,7 +10516,7 @@
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="W2" s="19"/>
@@ -10555,13 +10558,13 @@
       </c>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="U3" s="19"/>
@@ -10589,7 +10592,7 @@
         <v>21</v>
       </c>
       <c r="AK3" s="19"/>
-      <c r="AL3" s="18" t="s">
+      <c r="AL3" s="21" t="s">
         <v>22</v>
       </c>
       <c r="AM3" s="19"/>
@@ -18279,11 +18282,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="K3:L3"/>
@@ -18297,11 +18300,11 @@
     <mergeCell ref="M2:U2"/>
     <mergeCell ref="V2:AN2"/>
     <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/src/compiler/data/macq-slug.xlsx
+++ b/src/compiler/data/macq-slug.xlsx
@@ -5,7 +5,6 @@
   <sheets>
     <sheet state="visible" name="slug" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Copy of slug" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet2" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="391">
   <si>
     <t>Slug</t>
   </si>
@@ -1232,7 +1231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1267,12 +1266,6 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1313,7 +1306,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1383,9 +1376,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1399,10 +1389,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -7997,7 +7983,7 @@
         <v>1.0</v>
       </c>
       <c r="V57" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W57" s="1">
         <v>1.0</v>
@@ -8119,7 +8105,7 @@
         <v>0.0</v>
       </c>
       <c r="V58" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W58" s="1">
         <v>1.0</v>
@@ -12165,94 +12151,154 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="8">
-        <v>2011.0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>17.0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8"/>
+      <c r="A19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2012.0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H20" s="1">
-        <v>2012.0</v>
+        <v>2013.0</v>
       </c>
       <c r="I20" s="1">
-        <v>4.0</v>
+        <v>127.0</v>
       </c>
       <c r="J20" s="1">
         <v>0.0</v>
@@ -12294,13 +12340,13 @@
         <v>1.0</v>
       </c>
       <c r="W20" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X20" s="1">
         <v>0.0</v>
       </c>
       <c r="Y20" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20" s="1">
         <v>1.0</v>
@@ -12315,7 +12361,7 @@
         <v>0.0</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE20" s="1">
         <v>1.0</v>
@@ -12324,10 +12370,10 @@
         <v>1.0</v>
       </c>
       <c r="AG20" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH20" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI20" s="1">
         <v>0.0</v>
@@ -12350,22 +12396,22 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>51</v>
@@ -12374,7 +12420,7 @@
         <v>2013.0</v>
       </c>
       <c r="I21" s="1">
-        <v>127.0</v>
+        <v>161.0</v>
       </c>
       <c r="J21" s="1">
         <v>0.0</v>
@@ -12398,10 +12444,10 @@
         <v>1.0</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S21" s="1">
         <v>0.0</v>
@@ -12410,16 +12456,16 @@
         <v>1.0</v>
       </c>
       <c r="U21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V21" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W21" s="1">
         <v>0.0</v>
       </c>
       <c r="X21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y21" s="1">
         <v>0.0</v>
@@ -12428,16 +12474,16 @@
         <v>1.0</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB21" s="1">
         <v>1.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD21" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AE21" s="1">
         <v>1.0</v>
@@ -12446,19 +12492,19 @@
         <v>1.0</v>
       </c>
       <c r="AG21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI21" s="1">
         <v>0.0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AL21" s="1">
         <v>1.0</v>
@@ -12472,31 +12518,31 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>270</v>
+        <v>154</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="H22" s="1">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="I22" s="1">
-        <v>161.0</v>
+        <v>19.0</v>
       </c>
       <c r="J22" s="1">
         <v>0.0</v>
@@ -12523,7 +12569,7 @@
         <v>1.0</v>
       </c>
       <c r="R22" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S22" s="1">
         <v>0.0</v>
@@ -12535,13 +12581,13 @@
         <v>1.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X22" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y22" s="1">
         <v>0.0</v>
@@ -12577,10 +12623,10 @@
         <v>0.0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL22" s="1">
         <v>1.0</v>
@@ -12594,31 +12640,31 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>151</v>
+        <v>309</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>154</v>
+        <v>311</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H23" s="1">
         <v>2014.0</v>
       </c>
       <c r="I23" s="1">
-        <v>19.0</v>
+        <v>169.0</v>
       </c>
       <c r="J23" s="1">
         <v>0.0</v>
@@ -12639,10 +12685,10 @@
         <v>0.0</v>
       </c>
       <c r="P23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R23" s="1">
         <v>0.0</v>
@@ -12651,16 +12697,16 @@
         <v>0.0</v>
       </c>
       <c r="T23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V23" s="1">
         <v>1.0</v>
       </c>
       <c r="W23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X23" s="1">
         <v>0.0</v>
@@ -12669,16 +12715,16 @@
         <v>0.0</v>
       </c>
       <c r="Z23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23" s="1">
         <v>0.0</v>
@@ -12687,13 +12733,13 @@
         <v>1.0</v>
       </c>
       <c r="AF23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH23" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI23" s="1">
         <v>0.0</v>
@@ -12702,7 +12748,7 @@
         <v>0.0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AL23" s="1">
         <v>1.0</v>
@@ -12716,31 +12762,31 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H24" s="1">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="I24" s="1">
-        <v>169.0</v>
+        <v>170.0</v>
       </c>
       <c r="J24" s="1">
         <v>0.0</v>
@@ -12755,10 +12801,10 @@
         <v>1.0</v>
       </c>
       <c r="N24" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O24" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P24" s="1">
         <v>0.0</v>
@@ -12770,7 +12816,7 @@
         <v>0.0</v>
       </c>
       <c r="S24" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T24" s="1">
         <v>0.0</v>
@@ -12818,7 +12864,7 @@
         <v>0.0</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ24" s="1">
         <v>0.0</v>
@@ -12833,36 +12879,36 @@
         <v>0.0</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>318</v>
+        <v>159</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>313</v>
+        <v>161</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>319</v>
+        <v>162</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="H25" s="1">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="I25" s="1">
-        <v>170.0</v>
+        <v>30.0</v>
       </c>
       <c r="J25" s="1">
         <v>0.0</v>
@@ -12877,10 +12923,10 @@
         <v>1.0</v>
       </c>
       <c r="N25" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O25" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" s="1">
         <v>0.0</v>
@@ -12892,7 +12938,7 @@
         <v>0.0</v>
       </c>
       <c r="S25" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T25" s="1">
         <v>0.0</v>
@@ -12901,13 +12947,13 @@
         <v>0.0</v>
       </c>
       <c r="V25" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W25" s="1">
         <v>0.0</v>
       </c>
       <c r="X25" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y25" s="1">
         <v>0.0</v>
@@ -12940,13 +12986,13 @@
         <v>0.0</v>
       </c>
       <c r="AI25" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ25" s="1">
         <v>0.0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL25" s="1">
         <v>1.0</v>
@@ -12955,36 +13001,36 @@
         <v>0.0</v>
       </c>
       <c r="AN25" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="H26" s="1">
         <v>2016.0</v>
       </c>
       <c r="I26" s="1">
-        <v>30.0</v>
+        <v>3.0</v>
       </c>
       <c r="J26" s="1">
         <v>0.0</v>
@@ -13005,22 +13051,22 @@
         <v>0.0</v>
       </c>
       <c r="P26" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R26" s="1">
         <v>0.0</v>
       </c>
       <c r="S26" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T26" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U26" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V26" s="1">
         <v>0.0</v>
@@ -13041,7 +13087,7 @@
         <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC26" s="1">
         <v>0.0</v>
@@ -13053,7 +13099,7 @@
         <v>1.0</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AG26" s="1">
         <v>0.0</v>
@@ -13062,7 +13108,7 @@
         <v>0.0</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ26" s="1">
         <v>0.0</v>
@@ -13077,36 +13123,36 @@
         <v>0.0</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H27" s="1">
         <v>2016.0</v>
       </c>
       <c r="I27" s="1">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
       <c r="J27" s="1">
         <v>0.0</v>
@@ -13115,7 +13161,7 @@
         <v>0.0</v>
       </c>
       <c r="L27" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M27" s="1">
         <v>1.0</v>
@@ -13136,7 +13182,7 @@
         <v>0.0</v>
       </c>
       <c r="S27" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T27" s="1">
         <v>1.0</v>
@@ -13184,7 +13230,7 @@
         <v>0.0</v>
       </c>
       <c r="AI27" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ27" s="1">
         <v>0.0</v>
@@ -13199,36 +13245,36 @@
         <v>0.0</v>
       </c>
       <c r="AN27" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H28" s="1">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="I28" s="1">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="J28" s="1">
         <v>0.0</v>
@@ -13237,7 +13283,7 @@
         <v>0.0</v>
       </c>
       <c r="L28" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M28" s="1">
         <v>1.0</v>
@@ -13249,10 +13295,10 @@
         <v>0.0</v>
       </c>
       <c r="P28" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R28" s="1">
         <v>0.0</v>
@@ -13261,19 +13307,19 @@
         <v>0.0</v>
       </c>
       <c r="T28" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U28" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W28" s="1">
         <v>0.0</v>
       </c>
       <c r="X28" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y28" s="1">
         <v>0.0</v>
@@ -13285,7 +13331,7 @@
         <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
         <v>0.0</v>
@@ -13297,7 +13343,7 @@
         <v>1.0</v>
       </c>
       <c r="AF28" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG28" s="1">
         <v>0.0</v>
@@ -13326,31 +13372,31 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="H29" s="1">
         <v>2017.0</v>
       </c>
       <c r="I29" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="J29" s="1">
         <v>0.0</v>
@@ -13371,10 +13417,10 @@
         <v>0.0</v>
       </c>
       <c r="P29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R29" s="1">
         <v>0.0</v>
@@ -13383,34 +13429,34 @@
         <v>0.0</v>
       </c>
       <c r="T29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V29" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W29" s="1">
         <v>0.0</v>
       </c>
       <c r="X29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y29" s="1">
         <v>0.0</v>
       </c>
       <c r="Z29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD29" s="1">
         <v>0.0</v>
@@ -13419,22 +13465,22 @@
         <v>1.0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AG29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI29" s="1">
         <v>0.0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AL29" s="1">
         <v>1.0</v>
@@ -13448,31 +13494,31 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>185</v>
+        <v>287</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H30" s="1">
         <v>2017.0</v>
       </c>
       <c r="I30" s="1">
-        <v>9.0</v>
+        <v>164.0</v>
       </c>
       <c r="J30" s="1">
         <v>0.0</v>
@@ -13499,7 +13545,7 @@
         <v>1.0</v>
       </c>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S30" s="1">
         <v>0.0</v>
@@ -13511,13 +13557,13 @@
         <v>1.0</v>
       </c>
       <c r="V30" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W30" s="1">
         <v>0.0</v>
       </c>
       <c r="X30" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y30" s="1">
         <v>0.0</v>
@@ -13570,31 +13616,31 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="H31" s="1">
         <v>2017.0</v>
       </c>
       <c r="I31" s="1">
-        <v>164.0</v>
+        <v>168.0</v>
       </c>
       <c r="J31" s="1">
         <v>0.0</v>
@@ -13609,28 +13655,28 @@
         <v>1.0</v>
       </c>
       <c r="N31" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O31" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S31" s="1">
         <v>0.0</v>
       </c>
       <c r="T31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V31" s="1">
         <v>1.0</v>
@@ -13642,19 +13688,19 @@
         <v>0.0</v>
       </c>
       <c r="Y31" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31" s="1">
         <v>0.0</v>
@@ -13663,19 +13709,19 @@
         <v>1.0</v>
       </c>
       <c r="AF31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI31" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK31" s="1">
         <v>1.0</v>
@@ -13687,36 +13733,36 @@
         <v>0.0</v>
       </c>
       <c r="AN31" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>306</v>
+        <v>190</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="H32" s="1">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="I32" s="1">
-        <v>168.0</v>
+        <v>8.0</v>
       </c>
       <c r="J32" s="1">
         <v>0.0</v>
@@ -13731,16 +13777,16 @@
         <v>1.0</v>
       </c>
       <c r="N32" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O32" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R32" s="1">
         <v>0.0</v>
@@ -13749,31 +13795,31 @@
         <v>0.0</v>
       </c>
       <c r="T32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V32" s="1">
         <v>1.0</v>
       </c>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X32" s="1">
         <v>0.0</v>
       </c>
       <c r="Y32" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA32" s="1">
         <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC32" s="1">
         <v>0.0</v>
@@ -13785,16 +13831,16 @@
         <v>1.0</v>
       </c>
       <c r="AF32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AG32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI32" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ32" s="1">
         <v>0.0</v>
@@ -13806,39 +13852,39 @@
         <v>1.0</v>
       </c>
       <c r="AM32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN32" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="H33" s="1">
         <v>2018.0</v>
       </c>
       <c r="I33" s="1">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="J33" s="1">
         <v>0.0</v>
@@ -13862,7 +13908,7 @@
         <v>1.0</v>
       </c>
       <c r="Q33" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R33" s="1">
         <v>0.0</v>
@@ -13874,7 +13920,7 @@
         <v>1.0</v>
       </c>
       <c r="U33" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V33" s="1">
         <v>1.0</v>
@@ -13919,7 +13965,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK33" s="1">
         <v>1.0</v>
@@ -13936,31 +13982,31 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="H34" s="1">
         <v>2018.0</v>
       </c>
       <c r="I34" s="1">
-        <v>21.0</v>
+        <v>45.0</v>
       </c>
       <c r="J34" s="1">
         <v>0.0</v>
@@ -14002,7 +14048,7 @@
         <v>1.0</v>
       </c>
       <c r="W34" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X34" s="1">
         <v>0.0</v>
@@ -14032,10 +14078,10 @@
         <v>1.0</v>
       </c>
       <c r="AG34" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH34" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI34" s="1">
         <v>0.0</v>
@@ -14050,7 +14096,7 @@
         <v>1.0</v>
       </c>
       <c r="AM34" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN34" s="1">
         <v>0.0</v>
@@ -14058,31 +14104,31 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>204</v>
+        <v>299</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="H35" s="1">
         <v>2018.0</v>
       </c>
       <c r="I35" s="1">
-        <v>45.0</v>
+        <v>165.0</v>
       </c>
       <c r="J35" s="1">
         <v>0.0</v>
@@ -14097,13 +14143,13 @@
         <v>1.0</v>
       </c>
       <c r="N35" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O35" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P35" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q35" s="1">
         <v>0.0</v>
@@ -14112,10 +14158,10 @@
         <v>0.0</v>
       </c>
       <c r="S35" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T35" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U35" s="1">
         <v>0.0</v>
@@ -14124,22 +14170,22 @@
         <v>1.0</v>
       </c>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X35" s="1">
         <v>0.0</v>
       </c>
       <c r="Y35" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z35" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA35" s="1">
         <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
         <v>0.0</v>
@@ -14151,7 +14197,7 @@
         <v>1.0</v>
       </c>
       <c r="AF35" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG35" s="1">
         <v>0.0</v>
@@ -14160,10 +14206,10 @@
         <v>0.0</v>
       </c>
       <c r="AI35" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK35" s="1">
         <v>1.0</v>
@@ -14175,36 +14221,36 @@
         <v>0.0</v>
       </c>
       <c r="AN35" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>300</v>
+        <v>210</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H36" s="1">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="I36" s="1">
-        <v>165.0</v>
+        <v>5.0</v>
       </c>
       <c r="J36" s="1">
         <v>0.0</v>
@@ -14219,13 +14265,13 @@
         <v>1.0</v>
       </c>
       <c r="N36" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O36" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q36" s="1">
         <v>0.0</v>
@@ -14234,10 +14280,10 @@
         <v>0.0</v>
       </c>
       <c r="S36" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T36" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U36" s="1">
         <v>0.0</v>
@@ -14252,16 +14298,16 @@
         <v>0.0</v>
       </c>
       <c r="Y36" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z36" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA36" s="1">
         <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC36" s="1">
         <v>0.0</v>
@@ -14273,19 +14319,19 @@
         <v>1.0</v>
       </c>
       <c r="AF36" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI36" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK36" s="1">
         <v>1.0</v>
@@ -14294,42 +14340,42 @@
         <v>1.0</v>
       </c>
       <c r="AM36" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN36" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>98</v>
+        <v>220</v>
       </c>
       <c r="H37" s="1">
         <v>2019.0</v>
       </c>
       <c r="I37" s="1">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="J37" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K37" s="1">
         <v>0.0</v>
@@ -14374,7 +14420,7 @@
         <v>0.0</v>
       </c>
       <c r="Y37" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z37" s="1">
         <v>1.0</v>
@@ -14398,10 +14444,10 @@
         <v>1.0</v>
       </c>
       <c r="AG37" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH37" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI37" s="1">
         <v>0.0</v>
@@ -14416,7 +14462,7 @@
         <v>1.0</v>
       </c>
       <c r="AM37" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN37" s="1">
         <v>0.0</v>
@@ -14424,40 +14470,40 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H38" s="1">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="I38" s="1">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="J38" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K38" s="1">
         <v>0.0</v>
       </c>
       <c r="L38" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M38" s="1">
         <v>1.0</v>
@@ -14469,7 +14515,7 @@
         <v>0.0</v>
       </c>
       <c r="P38" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q38" s="1">
         <v>0.0</v>
@@ -14478,10 +14524,10 @@
         <v>0.0</v>
       </c>
       <c r="S38" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T38" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U38" s="1">
         <v>0.0</v>
@@ -14496,16 +14542,16 @@
         <v>0.0</v>
       </c>
       <c r="Y38" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z38" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA38" s="1">
         <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
         <v>0.0</v>
@@ -14517,7 +14563,7 @@
         <v>1.0</v>
       </c>
       <c r="AF38" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG38" s="1">
         <v>0.0</v>
@@ -14526,51 +14572,51 @@
         <v>0.0</v>
       </c>
       <c r="AI38" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL38" s="1">
         <v>1.0</v>
       </c>
       <c r="AM38" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN38" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H39" s="1">
         <v>2020.0</v>
       </c>
       <c r="I39" s="1">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="J39" s="1">
         <v>0.0</v>
@@ -14579,7 +14625,7 @@
         <v>0.0</v>
       </c>
       <c r="L39" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M39" s="1">
         <v>1.0</v>
@@ -14591,22 +14637,22 @@
         <v>0.0</v>
       </c>
       <c r="P39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R39" s="1">
         <v>0.0</v>
       </c>
       <c r="S39" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V39" s="1">
         <v>1.0</v>
@@ -14621,10 +14667,10 @@
         <v>0.0</v>
       </c>
       <c r="Z39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB39" s="1">
         <v>0.0</v>
@@ -14642,57 +14688,57 @@
         <v>0.0</v>
       </c>
       <c r="AG39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI39" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AL39" s="1">
         <v>1.0</v>
       </c>
       <c r="AM39" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN39" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H40" s="1">
         <v>2020.0</v>
       </c>
       <c r="I40" s="1">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="J40" s="1">
         <v>0.0</v>
@@ -14716,7 +14762,7 @@
         <v>1.0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R40" s="1">
         <v>0.0</v>
@@ -14728,25 +14774,25 @@
         <v>1.0</v>
       </c>
       <c r="U40" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V40" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W40" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X40" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y40" s="1">
         <v>0.0</v>
       </c>
       <c r="Z40" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA40" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="1">
         <v>0.0</v>
@@ -14764,19 +14810,19 @@
         <v>0.0</v>
       </c>
       <c r="AG40" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH40" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI40" s="1">
         <v>0.0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK40" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL40" s="1">
         <v>1.0</v>
@@ -14790,31 +14836,31 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H41" s="1">
         <v>2020.0</v>
       </c>
       <c r="I41" s="1">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="J41" s="1">
         <v>0.0</v>
@@ -14835,7 +14881,7 @@
         <v>0.0</v>
       </c>
       <c r="P41" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q41" s="1">
         <v>0.0</v>
@@ -14847,7 +14893,7 @@
         <v>0.0</v>
       </c>
       <c r="T41" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U41" s="1">
         <v>0.0</v>
@@ -14912,31 +14958,31 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>247</v>
+        <v>92</v>
       </c>
       <c r="H42" s="1">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="I42" s="1">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="J42" s="1">
         <v>0.0</v>
@@ -14957,7 +15003,7 @@
         <v>0.0</v>
       </c>
       <c r="P42" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q42" s="1">
         <v>0.0</v>
@@ -14969,31 +15015,31 @@
         <v>0.0</v>
       </c>
       <c r="T42" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U42" s="1">
         <v>0.0</v>
       </c>
       <c r="V42" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W42" s="1">
         <v>0.0</v>
       </c>
       <c r="X42" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y42" s="1">
         <v>0.0</v>
       </c>
       <c r="Z42" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA42" s="1">
         <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC42" s="1">
         <v>0.0</v>
@@ -15005,13 +15051,13 @@
         <v>1.0</v>
       </c>
       <c r="AF42" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI42" s="1">
         <v>0.0</v>
@@ -15034,31 +15080,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="H43" s="1">
         <v>2021.0</v>
       </c>
       <c r="I43" s="1">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="J43" s="1">
         <v>0.0</v>
@@ -15097,25 +15143,25 @@
         <v>0.0</v>
       </c>
       <c r="V43" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W43" s="1">
         <v>0.0</v>
       </c>
       <c r="X43" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z43" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA43" s="1">
         <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
         <v>0.0</v>
@@ -15127,13 +15173,13 @@
         <v>1.0</v>
       </c>
       <c r="AF43" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG43" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH43" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI43" s="1">
         <v>0.0</v>
@@ -15156,31 +15202,31 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="H44" s="1">
         <v>2021.0</v>
       </c>
       <c r="I44" s="1">
-        <v>23.0</v>
+        <v>121.0</v>
       </c>
       <c r="J44" s="1">
         <v>0.0</v>
@@ -15219,25 +15265,25 @@
         <v>0.0</v>
       </c>
       <c r="V44" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W44" s="1">
         <v>0.0</v>
       </c>
       <c r="X44" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y44" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z44" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA44" s="1">
         <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC44" s="1">
         <v>0.0</v>
@@ -15278,31 +15324,31 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>263</v>
+        <v>281</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>265</v>
+        <v>283</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="H45" s="1">
         <v>2021.0</v>
       </c>
       <c r="I45" s="1">
-        <v>121.0</v>
+        <v>163.0</v>
       </c>
       <c r="J45" s="1">
         <v>0.0</v>
@@ -15371,22 +15417,22 @@
         <v>1.0</v>
       </c>
       <c r="AF45" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AG45" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH45" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI45" s="1">
         <v>0.0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK45" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AL45" s="1">
         <v>1.0</v>
@@ -15400,31 +15446,31 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H46" s="1">
         <v>2021.0</v>
       </c>
       <c r="I46" s="1">
-        <v>163.0</v>
+        <v>171.0</v>
       </c>
       <c r="J46" s="1">
         <v>0.0</v>
@@ -15448,7 +15494,7 @@
         <v>1.0</v>
       </c>
       <c r="Q46" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R46" s="1">
         <v>0.0</v>
@@ -15460,13 +15506,13 @@
         <v>1.0</v>
       </c>
       <c r="U46" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V46" s="1">
         <v>1.0</v>
       </c>
       <c r="W46" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X46" s="1">
         <v>0.0</v>
@@ -15481,7 +15527,7 @@
         <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
         <v>0.0</v>
@@ -15490,31 +15536,31 @@
         <v>0.0</v>
       </c>
       <c r="AE46" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF46" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG46" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH46" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI46" s="1">
         <v>0.0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL46" s="1">
         <v>1.0</v>
       </c>
       <c r="AM46" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN46" s="1">
         <v>0.0</v>
@@ -15522,503 +15568,1223 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2021.0</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AN47" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2021.0</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AJ48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AN48" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E49" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H49" s="1">
         <v>2022.0</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I49" s="1">
         <v>166.0</v>
       </c>
-      <c r="J47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="R47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="U47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="V47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="W47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Z47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AD47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AE47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AG47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AL47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="AM47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AN47" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="20"/>
-      <c r="AG48" s="20"/>
-      <c r="AH48" s="20"/>
-      <c r="AI48" s="20"/>
-      <c r="AJ48" s="20"/>
-      <c r="AK48" s="20"/>
-      <c r="AL48" s="20"/>
-      <c r="AM48" s="20"/>
-      <c r="AN48" s="20"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
+      <c r="J49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AN49" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="V50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AN50" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="20"/>
-      <c r="AB51" s="20"/>
-      <c r="AC51" s="20"/>
-      <c r="AD51" s="20"/>
-      <c r="AE51" s="20"/>
-      <c r="AF51" s="20"/>
-      <c r="AG51" s="20"/>
-      <c r="AH51" s="20"/>
-      <c r="AI51" s="20"/>
-      <c r="AJ51" s="20"/>
-      <c r="AK51" s="20"/>
-      <c r="AL51" s="20"/>
-      <c r="AM51" s="20"/>
-      <c r="AN51" s="20"/>
+      <c r="A51" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AN51" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
-      <c r="AB52" s="20"/>
-      <c r="AC52" s="20"/>
-      <c r="AD52" s="20"/>
-      <c r="AE52" s="20"/>
-      <c r="AF52" s="20"/>
-      <c r="AG52" s="20"/>
-      <c r="AH52" s="20"/>
-      <c r="AI52" s="20"/>
-      <c r="AJ52" s="20"/>
-      <c r="AK52" s="20"/>
-      <c r="AL52" s="20"/>
-      <c r="AM52" s="20"/>
-      <c r="AN52" s="20"/>
+      <c r="A52" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2024.0</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AN52" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="20"/>
-      <c r="AC53" s="20"/>
-      <c r="AD53" s="20"/>
-      <c r="AE53" s="20"/>
-      <c r="AF53" s="20"/>
-      <c r="AG53" s="20"/>
-      <c r="AH53" s="20"/>
-      <c r="AI53" s="20"/>
-      <c r="AJ53" s="20"/>
-      <c r="AK53" s="20"/>
-      <c r="AL53" s="20"/>
-      <c r="AM53" s="20"/>
-      <c r="AN53" s="20"/>
+      <c r="A53" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2024.0</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AN53" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
-      <c r="AF54" s="20"/>
-      <c r="AG54" s="20"/>
-      <c r="AH54" s="20"/>
-      <c r="AI54" s="20"/>
-      <c r="AJ54" s="20"/>
-      <c r="AK54" s="20"/>
-      <c r="AL54" s="20"/>
-      <c r="AM54" s="20"/>
-      <c r="AN54" s="20"/>
+      <c r="A54" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2025.0</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="V54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AI54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AN54" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="20"/>
-      <c r="AA55" s="20"/>
-      <c r="AB55" s="20"/>
-      <c r="AC55" s="20"/>
-      <c r="AD55" s="20"/>
-      <c r="AE55" s="20"/>
-      <c r="AF55" s="20"/>
-      <c r="AG55" s="20"/>
-      <c r="AH55" s="20"/>
-      <c r="AI55" s="20"/>
-      <c r="AJ55" s="20"/>
-      <c r="AK55" s="20"/>
-      <c r="AL55" s="20"/>
-      <c r="AM55" s="20"/>
-      <c r="AN55" s="20"/>
+      <c r="A55" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2025.0</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="V55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AL55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AN55" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="20"/>
-      <c r="AA56" s="20"/>
-      <c r="AB56" s="20"/>
-      <c r="AC56" s="20"/>
-      <c r="AD56" s="20"/>
-      <c r="AE56" s="20"/>
-      <c r="AF56" s="20"/>
-      <c r="AG56" s="20"/>
-      <c r="AH56" s="20"/>
-      <c r="AI56" s="20"/>
-      <c r="AJ56" s="20"/>
-      <c r="AK56" s="20"/>
-      <c r="AL56" s="20"/>
-      <c r="AM56" s="20"/>
-      <c r="AN56" s="20"/>
+      <c r="A56" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2025.0</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AK56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AN56" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="20"/>
@@ -16028,9 +16794,9 @@
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
       <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
       <c r="M57" s="20"/>
@@ -17909,132 +18675,6 @@
       <c r="AL101" s="20"/>
       <c r="AM101" s="20"/>
       <c r="AN101" s="20"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="20"/>
-      <c r="Q102" s="20"/>
-      <c r="R102" s="20"/>
-      <c r="S102" s="20"/>
-      <c r="T102" s="20"/>
-      <c r="U102" s="20"/>
-      <c r="V102" s="20"/>
-      <c r="W102" s="20"/>
-      <c r="X102" s="20"/>
-      <c r="Y102" s="20"/>
-      <c r="Z102" s="20"/>
-      <c r="AA102" s="20"/>
-      <c r="AB102" s="20"/>
-      <c r="AC102" s="20"/>
-      <c r="AD102" s="20"/>
-      <c r="AE102" s="20"/>
-      <c r="AF102" s="20"/>
-      <c r="AG102" s="20"/>
-      <c r="AH102" s="20"/>
-      <c r="AI102" s="20"/>
-      <c r="AJ102" s="20"/>
-      <c r="AK102" s="20"/>
-      <c r="AL102" s="20"/>
-      <c r="AM102" s="20"/>
-      <c r="AN102" s="20"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="20"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="20"/>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="20"/>
-      <c r="S103" s="20"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
-      <c r="V103" s="20"/>
-      <c r="W103" s="20"/>
-      <c r="X103" s="20"/>
-      <c r="Y103" s="20"/>
-      <c r="Z103" s="20"/>
-      <c r="AA103" s="20"/>
-      <c r="AB103" s="20"/>
-      <c r="AC103" s="20"/>
-      <c r="AD103" s="20"/>
-      <c r="AE103" s="20"/>
-      <c r="AF103" s="20"/>
-      <c r="AG103" s="20"/>
-      <c r="AH103" s="20"/>
-      <c r="AI103" s="20"/>
-      <c r="AJ103" s="20"/>
-      <c r="AK103" s="20"/>
-      <c r="AL103" s="20"/>
-      <c r="AM103" s="20"/>
-      <c r="AN103" s="20"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="20"/>
-      <c r="K104" s="20"/>
-      <c r="L104" s="20"/>
-      <c r="M104" s="20"/>
-      <c r="N104" s="20"/>
-      <c r="O104" s="20"/>
-      <c r="P104" s="20"/>
-      <c r="Q104" s="20"/>
-      <c r="R104" s="20"/>
-      <c r="S104" s="20"/>
-      <c r="T104" s="20"/>
-      <c r="U104" s="20"/>
-      <c r="V104" s="20"/>
-      <c r="W104" s="20"/>
-      <c r="X104" s="20"/>
-      <c r="Y104" s="20"/>
-      <c r="Z104" s="20"/>
-      <c r="AA104" s="20"/>
-      <c r="AB104" s="20"/>
-      <c r="AC104" s="20"/>
-      <c r="AD104" s="20"/>
-      <c r="AE104" s="20"/>
-      <c r="AF104" s="20"/>
-      <c r="AG104" s="20"/>
-      <c r="AH104" s="20"/>
-      <c r="AI104" s="20"/>
-      <c r="AJ104" s="20"/>
-      <c r="AK104" s="20"/>
-      <c r="AL104" s="20"/>
-      <c r="AM104" s="20"/>
-      <c r="AN104" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -18092,8 +18732,8 @@
     <hyperlink r:id="rId27" ref="D31"/>
     <hyperlink r:id="rId28" ref="D32"/>
     <hyperlink r:id="rId29" ref="D33"/>
-    <hyperlink r:id="rId30" ref="D34"/>
-    <hyperlink r:id="rId31" location="page=577" ref="D35"/>
+    <hyperlink r:id="rId30" location="page=577" ref="D34"/>
+    <hyperlink r:id="rId31" ref="D35"/>
     <hyperlink r:id="rId32" ref="D36"/>
     <hyperlink r:id="rId33" ref="D37"/>
     <hyperlink r:id="rId34" ref="D38"/>
@@ -18106,21 +18746,16 @@
     <hyperlink r:id="rId41" ref="D45"/>
     <hyperlink r:id="rId42" ref="D46"/>
     <hyperlink r:id="rId43" ref="D47"/>
+    <hyperlink r:id="rId44" ref="D48"/>
+    <hyperlink r:id="rId45" ref="D49"/>
+    <hyperlink r:id="rId46" ref="D50"/>
+    <hyperlink r:id="rId47" ref="D51"/>
+    <hyperlink r:id="rId48" ref="D52"/>
+    <hyperlink r:id="rId49" ref="D53"/>
+    <hyperlink r:id="rId50" ref="D54"/>
+    <hyperlink r:id="rId51" ref="D55"/>
+    <hyperlink r:id="rId52" ref="D56"/>
   </hyperlinks>
-  <drawing r:id="rId44"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId53"/>
 </worksheet>
 </file>